--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Engineering work\blackmagic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Engineering work\blackmagic\L1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8552475-0E32-4F59-B6BB-C48BF8F835A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ED1861-4BDF-492C-9A08-0D9934B2C918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{5C61E24D-792D-4B37-95F2-6CA885D9A855}"/>
+    <workbookView xWindow="57600" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{5C61E24D-792D-4B37-95F2-6CA885D9A855}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t xml:space="preserve">Bill of Materials </t>
   </si>
@@ -42,10 +42,6 @@
     <t>MCU</t>
   </si>
   <si>
-    <t xml:space="preserve">	
-ATSAME70N21A-AN</t>
-  </si>
-  <si>
     <t>Subsystem</t>
   </si>
   <si>
@@ -70,18 +66,12 @@
     <t>Vendor link</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/microchip-technology/ATSAME70N21A-AN/5235887</t>
-  </si>
-  <si>
     <t>NIU</t>
   </si>
   <si>
     <t>Bosch Sensortec</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/BHI160B/828-1089-1-ND/9674248?itemSeq=376988834</t>
-  </si>
-  <si>
     <t>Baro pressure</t>
   </si>
   <si>
@@ -91,18 +81,12 @@
     <t>TE connectivity measurement system</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/MS560702BA03-50/223-1198-1-ND/4700921?itemSeq=377787810</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total </t>
   </si>
   <si>
     <t>GPS</t>
   </si>
   <si>
-    <t>MAX-M8W-0‎</t>
-  </si>
-  <si>
     <t>U-Blox</t>
   </si>
   <si>
@@ -113,6 +97,45 @@
   </si>
   <si>
     <t>BMI160</t>
+  </si>
+  <si>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/raspberry-pi/SC0914-13/14306010</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/bosch-sensortec/BMI160/6136300</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/te-connectivity-measurement-specialties/MS560702BA03-50/4700931</t>
+  </si>
+  <si>
+    <t>NEO-M8M-0</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/u-blox/NEO-M8M-0/6150640</t>
+  </si>
+  <si>
+    <t>16Mb Flash</t>
+  </si>
+  <si>
+    <t>W25Q16JVZPIQ</t>
+  </si>
+  <si>
+    <t>Winbond Electronics</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/winbond-electronics/W25Q16JVZPIQ/6193770</t>
+  </si>
+  <si>
+    <t>USB-UART</t>
+  </si>
+  <si>
+    <t>CP2102N-A02-GQFN20</t>
+  </si>
+  <si>
+    <t>Silicon Labs</t>
   </si>
 </sst>
 </file>
@@ -122,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +157,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,21 +196,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,51 +529,51 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F1">
         <f>SUM(F3:F32)</f>
-        <v>107.37</v>
+        <v>103.10000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -547,284 +581,315 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4">
-        <v>16.38</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f>E3*D3</f>
-        <v>32.76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4.1020000000000003</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6.36</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" ref="F4:F32" si="0">E4*D4</f>
-        <v>20.51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
+        <v>31.8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4.05</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6.94</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>8.1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>13.88</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="3">
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="4"/>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.42</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="4"/>
-      <c r="F9" s="4">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="4"/>
-      <c r="F10" s="4">
+      <c r="D10" s="3"/>
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
-      <c r="F11" s="4">
+      <c r="D11" s="3"/>
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="4"/>
-      <c r="F12" s="4">
+      <c r="D12" s="3"/>
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="4"/>
-      <c r="F13" s="4">
+      <c r="D13" s="3"/>
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="4"/>
-      <c r="F14" s="4">
+      <c r="D14" s="3"/>
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
-      <c r="F15" s="4">
+      <c r="D15" s="3"/>
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="4"/>
-      <c r="F16" s="4">
+      <c r="D16" s="3"/>
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="4"/>
-      <c r="F17" s="4">
+      <c r="D17" s="3"/>
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-      <c r="F18" s="4">
+      <c r="D18" s="3"/>
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
-      <c r="F19" s="4">
+      <c r="D19" s="3"/>
+      <c r="F19" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="4"/>
-      <c r="F20" s="4">
+      <c r="D20" s="3"/>
+      <c r="F20" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="4"/>
-      <c r="F21" s="4">
+      <c r="D21" s="3"/>
+      <c r="F21" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="4"/>
-      <c r="F22" s="4">
+      <c r="D22" s="3"/>
+      <c r="F22" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="F23" s="4">
+      <c r="D23" s="3"/>
+      <c r="F23" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="4"/>
-      <c r="F24" s="4">
+      <c r="D24" s="3"/>
+      <c r="F24" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
-      <c r="F25" s="4">
+      <c r="D25" s="3"/>
+      <c r="F25" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="4"/>
-      <c r="F26" s="4">
+      <c r="D26" s="3"/>
+      <c r="F26" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="4"/>
-      <c r="F27" s="4">
+      <c r="D27" s="3"/>
+      <c r="F27" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="4"/>
-      <c r="F28" s="4">
+      <c r="D28" s="3"/>
+      <c r="F28" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="4"/>
-      <c r="F29" s="4">
+      <c r="D29" s="3"/>
+      <c r="F29" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="4"/>
-      <c r="F30" s="4">
+      <c r="D30" s="3"/>
+      <c r="F30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="4"/>
-      <c r="F31" s="4">
+      <c r="D31" s="3"/>
+      <c r="F31" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="4"/>
-      <c r="F32" s="4">
+      <c r="D32" s="3"/>
+      <c r="F32" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -833,7 +898,13 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{BE947E0B-7635-431C-8BD8-E5B06F86E278}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{4FB2885E-05B1-44C9-9BD5-2C08AF84AFBF}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{9F2C8CFA-BD33-470D-8DCA-5EF0806AC63B}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{5235685E-EA56-4FC1-BD99-40BC14CE68F4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
 </worksheet>
 </file>